--- a/noah is a soy sause/cluster_summary.xlsx
+++ b/noah is a soy sause/cluster_summary.xlsx
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -755,112 +756,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="5" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="6" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="3" spans="2:9" ht="28" customHeight="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="2:9" ht="28" customHeight="1">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="2:9" ht="28" customHeight="1">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="2:9" ht="28" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="28" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="28" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" ht="28" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" ht="28" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/noah is a soy sause/cluster_summary.xlsx
+++ b/noah is a soy sause/cluster_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No. of Transactions per Bet</t>
   </si>
@@ -27,9 +27,6 @@
     <t>No. of Bets per Match</t>
   </si>
   <si>
-    <t>No. of Matchs</t>
-  </si>
-  <si>
     <t>Actual Profit Loss Amt per Bet</t>
   </si>
   <si>
@@ -45,15 +42,9 @@
     <t>a. Strong but Simple</t>
   </si>
   <si>
-    <t>b. Frequent and Reactive</t>
-  </si>
-  <si>
     <t>c. Fast then Win</t>
   </si>
   <si>
-    <t>d. Casual and Hesitant</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -64,13 +55,28 @@
   </si>
   <si>
     <t>Severely Low</t>
+  </si>
+  <si>
+    <t>Clusters</t>
+  </si>
+  <si>
+    <t>Dimenstions</t>
+  </si>
+  <si>
+    <t>No. of Matches</t>
+  </si>
+  <si>
+    <t>b. Frequent and Careful</t>
+  </si>
+  <si>
+    <t>d. Casual and Bold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +106,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,8 +177,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,8 +318,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,8 +346,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -367,6 +414,11 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -427,6 +479,11 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -756,115 +813,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I34"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="6" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="7" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="28" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="2" spans="2:10" ht="23">
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" ht="28" customHeight="1">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="28" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="28" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="6" spans="2:10" ht="28" customHeight="1">
+      <c r="B6" s="11"/>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28" customHeight="1">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="28" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1" t="s">
+    <row r="7" spans="2:10" ht="28" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="28" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="28" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="2:10" ht="28" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="28" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" ht="28" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:9" ht="28" customHeight="1">
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="28" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:9" ht="28" customHeight="1">
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -872,9 +946,9 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -882,9 +956,9 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -892,9 +966,9 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -902,9 +976,9 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -912,9 +986,9 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -922,9 +996,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -932,9 +1006,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -942,9 +1016,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -952,9 +1026,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -962,9 +1036,9 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -972,9 +1046,9 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -982,9 +1056,9 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -992,9 +1066,9 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1002,9 +1076,9 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1012,9 +1086,9 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10">
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1022,9 +1096,9 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10">
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1032,9 +1106,9 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10">
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1042,9 +1116,9 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1052,9 +1126,9 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1062,9 +1136,9 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1072,9 +1146,9 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="3:10">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1082,9 +1156,9 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="3:10">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1092,9 +1166,9 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="3:10">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1102,8 +1176,13 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B4:B10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
